--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H2">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q2">
-        <v>1.306197331264333</v>
+        <v>2.91015186027</v>
       </c>
       <c r="R2">
-        <v>11.755775981379</v>
+        <v>26.19136674243</v>
       </c>
       <c r="S2">
-        <v>0.002531445565256729</v>
+        <v>0.003890566929861999</v>
       </c>
       <c r="T2">
-        <v>0.002531445565256729</v>
+        <v>0.003890566929861998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>136.674446</v>
       </c>
       <c r="N3">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O3">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P3">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q3">
-        <v>1.703555853092667</v>
+        <v>5.503879940419999</v>
       </c>
       <c r="R3">
-        <v>15.332002677834</v>
+        <v>49.53491946378</v>
       </c>
       <c r="S3">
-        <v>0.003301537069674099</v>
+        <v>0.00735810854906458</v>
       </c>
       <c r="T3">
-        <v>0.003301537069674098</v>
+        <v>0.007358108549064581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N4">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O4">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P4">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q4">
-        <v>0.3633234173831111</v>
+        <v>1.45205272029</v>
       </c>
       <c r="R4">
-        <v>3.269910756448</v>
+        <v>13.06847448261</v>
       </c>
       <c r="S4">
-        <v>0.0007041305564436733</v>
+        <v>0.001941241751367674</v>
       </c>
       <c r="T4">
-        <v>0.0007041305564436732</v>
+        <v>0.001941241751367673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N5">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O5">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P5">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q5">
-        <v>104.205120654773</v>
+        <v>71.85936021237301</v>
       </c>
       <c r="R5">
-        <v>937.846085892957</v>
+        <v>646.734241911357</v>
       </c>
       <c r="S5">
-        <v>0.2019523269912307</v>
+        <v>0.09606840600317025</v>
       </c>
       <c r="T5">
-        <v>0.2019523269912306</v>
+        <v>0.09606840600317024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>136.674446</v>
       </c>
       <c r="N6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q6">
         <v>135.905378892358</v>
@@ -818,10 +818,10 @@
         <v>1223.148410031222</v>
       </c>
       <c r="S6">
-        <v>0.263388280206165</v>
+        <v>0.1816911962319095</v>
       </c>
       <c r="T6">
-        <v>0.2633882802061649</v>
+        <v>0.1816911962319095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N7">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O7">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P7">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q7">
-        <v>28.98502365524266</v>
+        <v>35.855029044771</v>
       </c>
       <c r="R7">
-        <v>260.865212897184</v>
+        <v>322.695261402939</v>
       </c>
       <c r="S7">
-        <v>0.05617375555338417</v>
+        <v>0.04793440238472133</v>
       </c>
       <c r="T7">
-        <v>0.05617375555338416</v>
+        <v>0.04793440238472133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N8">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O8">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P8">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q8">
-        <v>94.30124346506567</v>
+        <v>145.86506883178</v>
       </c>
       <c r="R8">
-        <v>848.711191185591</v>
+        <v>1312.78561948602</v>
       </c>
       <c r="S8">
-        <v>0.1827583465790487</v>
+        <v>0.1950062540606783</v>
       </c>
       <c r="T8">
-        <v>0.1827583465790487</v>
+        <v>0.1950062540606783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>136.674446</v>
       </c>
       <c r="N9">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O9">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P9">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q9">
-        <v>122.9886414660873</v>
+        <v>275.8700799472132</v>
       </c>
       <c r="R9">
-        <v>1106.897773194786</v>
+        <v>2482.830719524919</v>
       </c>
       <c r="S9">
-        <v>0.2383552956082954</v>
+        <v>0.3688092792110976</v>
       </c>
       <c r="T9">
-        <v>0.2383552956082953</v>
+        <v>0.3688092792110977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q10">
-        <v>26.23022511157689</v>
+        <v>72.78100256005999</v>
       </c>
       <c r="R10">
-        <v>236.072026004192</v>
+        <v>655.0290230405399</v>
       </c>
       <c r="S10">
-        <v>0.05083488187050173</v>
+        <v>0.0973005448781287</v>
       </c>
       <c r="T10">
-        <v>0.05083488187050172</v>
+        <v>0.0973005448781287</v>
       </c>
     </row>
   </sheetData>
